--- a/biology/Zoologie/Eryonidae/Eryonidae.xlsx
+++ b/biology/Zoologie/Eryonidae/Eryonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryonoidea
 Les Eryonidae sont une famille éteinte de crustacés décapodes de la super-famille des Eryonoidea et de l'infra-ordre des Polychelida. Ils sont connus au Trias et surtout au Jurassique, essentiellement en Europe de l'Ouest.
@@ -512,16 +524,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 décembre 2019)[3], complété par Paleobiology Database                   (26 décembre 2019)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 décembre 2019), complété par Paleobiology Database                   (26 décembre 2019) :
 famille † Eryonidae De Haan, 1841
-genre † Eryon Desmarest, 1817[5]
+genre † Eryon Desmarest, 1817
 genre † Cycleryon Glaessner, 1965
 genre † Knebelia
 genre † Rosenfeldia
 genre † Wrangelleryon
-genre † Soleryon Charbonnier, Schweigert et Saint Martin[6], 2014</t>
+genre † Soleryon Charbonnier, Schweigert et Saint Martin, 2014</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois petits Eryonidae, non déterminables plus précisément, ont été découverts en 2012 fossilisés dans les argiles à Posidonies du sud de l'Allemagne. Ils ont été trouvés à l'intérieur de la coquille d'une ammonite (Harpoceras falciferum), ce qui permet de les dater précisément du Toarcien inférieur, sous-zone à Falciferum (Jurassique inférieur). Ces décapodes de même taille (environ 3 centimètres) sont positionnés avec leurs queues orientées les unes vers les autres, ce qui indiquerait qu'ils étaient en train de muer ensemble à l'abri dans une coquille en fond de mer, avant d'être piégés par des sédiments et fossilisés. Ce comportement grégaire serait, selon les auteurs, le plus ancien connu chez les décapodes[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois petits Eryonidae, non déterminables plus précisément, ont été découverts en 2012 fossilisés dans les argiles à Posidonies du sud de l'Allemagne. Ils ont été trouvés à l'intérieur de la coquille d'une ammonite (Harpoceras falciferum), ce qui permet de les dater précisément du Toarcien inférieur, sous-zone à Falciferum (Jurassique inférieur). Ces décapodes de même taille (environ 3 centimètres) sont positionnés avec leurs queues orientées les unes vers les autres, ce qui indiquerait qu'ils étaient en train de muer ensemble à l'abri dans une coquille en fond de mer, avant d'être piégés par des sédiments et fossilisés. Ce comportement grégaire serait, selon les auteurs, le plus ancien connu chez les décapodes. 
 </t>
         </is>
       </c>
